--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDSPREAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B88AAB5-C5EF-4C11-8C46-53BED4908E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D27CF75-716B-444A-9067-7B4E481CEA40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="35385" yWindow="990" windowWidth="8850" windowHeight="4590" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="25">
   <si>
     <t>scn.id</t>
   </si>
@@ -48,58 +49,67 @@
     <t>sr.opt</t>
   </si>
   <si>
+    <t>fuel.opt</t>
+  </si>
+  <si>
+    <t>facc</t>
+  </si>
+  <si>
+    <t>rpb</t>
+  </si>
+  <si>
+    <t>pb.upper.th</t>
+  </si>
+  <si>
+    <t>wslope</t>
+  </si>
+  <si>
+    <t>wwind</t>
+  </si>
+  <si>
+    <t>file.fire.ignis</t>
+  </si>
+  <si>
+    <t>file.sprd.weight</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
     <t>fuel</t>
   </si>
   <si>
-    <t>pb.upper.th</t>
-  </si>
-  <si>
-    <t>rpb</t>
-  </si>
-  <si>
-    <t>wslope</t>
-  </si>
-  <si>
-    <t>wwind</t>
-  </si>
-  <si>
-    <t>file.fire.ignis</t>
-  </si>
-  <si>
-    <t>obs</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>FireIgnitions</t>
   </si>
   <si>
+    <t>WeightSprdFactors</t>
+  </si>
+  <si>
     <t>pb=1-exp(-acc*fi)+U[-rp,rpb], fi=sr*fuel</t>
   </si>
   <si>
-    <t>B</t>
+    <t>GC0.1</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>GC0.1</t>
-  </si>
-  <si>
     <t>GC0.1, SH1</t>
   </si>
   <si>
-    <t>fuel.opt</t>
-  </si>
-  <si>
-    <t>facc</t>
-  </si>
-  <si>
-    <t>file.sprd.weight</t>
-  </si>
-  <si>
-    <t>WeightSprdFactors</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -123,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +152,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -177,6 +193,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,23 +512,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19859F-333D-4C16-89F4-8572D04BF0E4}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -528,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -564,16 +585,16 @@
       </c>
       <c r="B2" s="3" t="str">
         <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C2,"slope",D2,"fuel",E2,"_acc",F2,"_rpb",G2*10,"_up",H2*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelC_acc2_rpb3_up8_wDefault</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
@@ -587,16 +608,16 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -606,16 +627,16 @@
       </c>
       <c r="B3" s="3" t="str">
         <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C3,"slope",D3,"fuel",E3,"_acc",F3,"_rpb",G3*10,"_up",H3*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelC_acc2_rpb3_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_acc2_rpb3_up8_wDefault</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -629,122 +650,122 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A13" si="0">+A3+1</f>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <f>+A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="3" t="str">
         <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C4,"slope",D4,"fuel",E4,"_acc",F4,"_rpb",G4*10,"_up",H4*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up8_wDefault</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="9">
+        <v>Scn_pbEXPFI_windAslopeAfuelE_acc2_rpb3_up8_wDefault</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.8</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <f>+A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="str">
-        <f t="shared" ref="B5:B12" si="1">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C5,"slope",D5,"fuel",E5,"_acc",F5,"_rpb",G5*10,"_up",H5*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up8_wDefault</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="B5" s="3" t="str">
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C5,"slope",D5,"fuel",E5,"_acc",F5,"_rpb",G5*10,"_up",H5*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelF_acc2_rpb3_up8_wDefault</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.8</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <f t="shared" si="0"/>
+        <f>+A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up8_wDefault</v>
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C6,"slope",D6,"fuel",E6,"_acc",F6,"_rpb",G6*10,"_up",H6*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up8_wDefault</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="9">
         <v>0.1</v>
@@ -755,41 +776,41 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <f t="shared" si="0"/>
+        <f>+A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up8_wDefault</v>
+        <f t="shared" ref="B7:B14" si="0">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C7,"slope",D7,"fuel",E7,"_acc",F7,"_rpb",G7*10,"_up",H7*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up8_wDefault</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="9">
         <v>0.8</v>
@@ -797,41 +818,41 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
+        <f t="shared" ref="A7:A33" si="1">+A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up8_wDefault</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="9">
         <v>0.8</v>
@@ -839,38 +860,38 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up8_wDefault</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9">
         <v>0.2</v>
@@ -881,41 +902,41 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up8_wDefault</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H10" s="9">
         <v>0.8</v>
@@ -923,41 +944,41 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up8_wDefault</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H11" s="9">
         <v>0.8</v>
@@ -965,38 +986,38 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up8_wDefault</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up8_wDefault</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="9">
         <v>0.3</v>
@@ -1007,61 +1028,918 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="B13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up8_wDefault</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up8_wDefault</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C15,"slope",D15,"fuel",E15,"_acc",F15,"_rpb",G15*10,"_up",H15*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up10_wDefault</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f t="shared" ref="B16:B23" si="2">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C16,"slope",D16,"fuel",E16,"_acc",F16,"_rpb",G16*10,"_up",H16*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up10_wDefault</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up10_wDefault</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up10_wDefault</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up10_wDefault</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up10_wDefault</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up10_wDefault</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f t="shared" ref="B13" si="2">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C13,"slope",D13, "fuel",E13, "_acc",F13, "_rpb",G13*10,"_up",H13*10,"_ws",I13*10,"_ww",10*J13)</f>
+      <c r="B22" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up10_wDefault</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up10_wDefault</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C24,"slope",D24,"fuel",E24,"_acc",F24,"_rpb",G24*10,"_up",H24*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up6_wDefault</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f t="shared" ref="B25:B32" si="3">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C25,"slope",D25,"fuel",E25,"_acc",F25,"_rpb",G25*10,"_up",H25*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up6_wDefault</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up6_wDefault</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="14">
+        <v>3</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up6_wDefault</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up6_wDefault</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up6_wDefault</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="14">
+        <v>3</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up6_wDefault</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up6_wDefault</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up6_wDefault</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="14">
+        <v>3</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" ref="B33" si="4">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C33,"slope",D33, "fuel",E33, "_acc",F33, "_rpb",G33*10,"_up",H33*10,"_ws",I33*10,"_ww",10*J33)</f>
         <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up8_ws0_ww0</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="11">
         <v>3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G33" s="11">
         <v>0.3</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H33" s="11">
         <v>0.8</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="11" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C14708">
+    <sortCondition descending="1" ref="C1:C14708"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDSPREAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDSPREAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{6D27CF75-716B-444A-9067-7B4E481CEA40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2C1A4A6-FCBA-4245-AB46-5918B8E01E78}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB24C4-4E7F-4960-B493-4FC408584C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17625" windowHeight="12570" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="25">
   <si>
     <t>scn.id</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -516,29 +519,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19859F-333D-4C16-89F4-8572D04BF0E4}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,12 +579,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B7" si="0">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C2,"slope",D2,"fuel",E2,"_acc",F2,"_rpb",G2*10,"_up",H2*10,"_wDefault")</f>
+        <f t="shared" ref="B2:B8" si="0">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C2,"slope",D2,"fuel",E2,"_acc",F2,"_rpb",G2*10,"_up",H2*10,"_wDefault")</f>
         <v>Scn_pbEXPFI_windAslopeAfuelC_acc2_rpb3_up8_wDefault</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -615,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>+A2+1</f>
         <v>2</v>
@@ -655,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>+A3+1</f>
         <v>3</v>
@@ -695,7 +698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f>+A4+1</f>
         <v>4</v>
@@ -735,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>5</v>
@@ -775,66 +778,66 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f t="shared" ref="A7:A33" si="1">+A6+1</f>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <f>+A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="3" t="str">
+        <f t="shared" ref="B7" si="1">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C7,"slope",D7,"fuel",E7,"_acc",F7,"_rpb",G7*10,"_up",H7*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelH_acc2_rpb3_up8_wDefault</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f t="shared" ref="A8:A34" si="2">+A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up8_wDefault</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9">
         <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="str">
-        <f t="shared" ref="B8:B15" si="2">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C8,"slope",D8,"fuel",E8,"_acc",F8,"_rpb",G8*10,"_up",H8*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up8_wDefault</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2</v>
       </c>
       <c r="G8" s="9">
         <v>0.1</v>
@@ -855,14 +858,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up8_wDefault</v>
+        <f t="shared" ref="B9:B16" si="3">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C9,"slope",D9,"fuel",E9,"_acc",F9,"_rpb",G9*10,"_up",H9*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up8_wDefault</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -874,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="9">
         <v>0.1</v>
@@ -895,14 +898,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up8_wDefault</v>
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up8_wDefault</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
@@ -914,10 +917,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="9">
         <v>0.8</v>
@@ -935,14 +938,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up8_wDefault</v>
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up8_wDefault</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -954,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9">
         <v>0.2</v>
@@ -975,14 +978,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up8_wDefault</v>
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up8_wDefault</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -994,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9">
         <v>0.2</v>
@@ -1015,14 +1018,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up8_wDefault</v>
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up8_wDefault</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -1034,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="9">
         <v>0.8</v>
@@ -1055,14 +1058,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up8_wDefault</v>
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up8_wDefault</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
@@ -1074,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="9">
         <v>0.3</v>
@@ -1095,14 +1098,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up8_wDefault</v>
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up8_wDefault</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1114,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="9">
         <v>0.3</v>
@@ -1135,66 +1138,66 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="str">
-        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C16,"slope",D16,"fuel",E16,"_acc",F16,"_rpb",G16*10,"_up",H16*10,"_wDefault")</f>
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up8_wDefault</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="str">
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C17,"slope",D17,"fuel",E17,"_acc",F17,"_rpb",G17*10,"_up",H17*10,"_wDefault")</f>
         <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up10_wDefault</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12">
         <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="str">
-        <f t="shared" ref="B17:B24" si="3">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C17,"slope",D17,"fuel",E17,"_acc",F17,"_rpb",G17*10,"_up",H17*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up10_wDefault</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="12">
-        <v>2</v>
       </c>
       <c r="G17" s="12">
         <v>0.1</v>
@@ -1215,14 +1218,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up10_wDefault</v>
+        <f t="shared" ref="B18:B25" si="4">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C18,"slope",D18,"fuel",E18,"_acc",F18,"_rpb",G18*10,"_up",H18*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up10_wDefault</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>12</v>
@@ -1234,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="12">
         <v>0.1</v>
@@ -1255,14 +1258,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up10_wDefault</v>
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up10_wDefault</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>12</v>
@@ -1274,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="F19" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
@@ -1295,14 +1298,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up10_wDefault</v>
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up10_wDefault</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
@@ -1314,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="12">
         <v>0.2</v>
@@ -1335,14 +1338,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up10_wDefault</v>
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up10_wDefault</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>12</v>
@@ -1354,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="12">
         <v>0.2</v>
@@ -1375,14 +1378,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up10_wDefault</v>
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up10_wDefault</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>12</v>
@@ -1394,10 +1397,10 @@
         <v>13</v>
       </c>
       <c r="F22" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="12">
         <v>1</v>
@@ -1415,14 +1418,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up10_wDefault</v>
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up10_wDefault</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
@@ -1434,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="12">
         <v>0.3</v>
@@ -1455,14 +1458,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up10_wDefault</v>
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up10_wDefault</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>12</v>
@@ -1474,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="12">
         <v>0.3</v>
@@ -1495,66 +1498,66 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <f t="shared" si="1"/>
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="str">
-        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C25,"slope",D25,"fuel",E25,"_acc",F25,"_rpb",G25*10,"_up",H25*10,"_wDefault")</f>
+      <c r="B25" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up10_wDefault</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="12">
+        <v>3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="str">
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C26,"slope",D26,"fuel",E26,"_acc",F26,"_rpb",G26*10,"_up",H26*10,"_wDefault")</f>
         <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb1_up6_wDefault</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15">
         <v>1</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="14" t="str">
-        <f t="shared" ref="B26:B33" si="4">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C26,"slope",D26,"fuel",E26,"_acc",F26,"_rpb",G26*10,"_up",H26*10,"_wDefault")</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up6_wDefault</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="15">
-        <v>2</v>
       </c>
       <c r="G26" s="15">
         <v>0.1</v>
@@ -1575,14 +1578,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up6_wDefault</v>
+        <f t="shared" ref="B27:B34" si="5">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C27,"slope",D27,"fuel",E27,"_acc",F27,"_rpb",G27*10,"_up",H27*10,"_wDefault")</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb1_up6_wDefault</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>12</v>
@@ -1594,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="15">
         <v>0.1</v>
@@ -1615,14 +1618,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up6_wDefault</v>
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb1_up6_wDefault</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>12</v>
@@ -1634,10 +1637,10 @@
         <v>13</v>
       </c>
       <c r="F28" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="15">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="15">
         <v>0.6</v>
@@ -1655,14 +1658,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up6_wDefault</v>
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb2_up6_wDefault</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>12</v>
@@ -1674,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15">
         <v>0.2</v>
@@ -1695,14 +1698,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up6_wDefault</v>
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb2_up6_wDefault</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>12</v>
@@ -1714,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" s="15">
         <v>0.2</v>
@@ -1735,14 +1738,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up6_wDefault</v>
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb2_up6_wDefault</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>12</v>
@@ -1754,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="F31" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H31" s="15">
         <v>0.6</v>
@@ -1775,14 +1778,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up6_wDefault</v>
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc1_rpb3_up6_wDefault</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>12</v>
@@ -1794,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="15">
         <v>0.3</v>
@@ -1815,14 +1818,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up6_wDefault</v>
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc2_rpb3_up6_wDefault</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>12</v>
@@ -1834,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="15">
         <v>0.3</v>
@@ -1852,6 +1855,46 @@
         <v>16</v>
       </c>
       <c r="L33" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_acc3_rpb3_up6_wDefault</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="15">
+        <v>3</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1868,7 +1911,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C14708">
     <sortCondition descending="1" ref="C1:C14708"/>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDSPREAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDSPREAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAB24C4-4E7F-4960-B493-4FC408584C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5AAB24C4-4E7F-4960-B493-4FC408584C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6207CEA6-E52C-4CDF-AC52-A9C367838282}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1470" windowWidth="21600" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Obj5" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="27">
   <si>
     <t>scn.id</t>
   </si>
@@ -111,12 +111,18 @@
   <si>
     <t>H</t>
   </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +134,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,6 +218,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19859F-333D-4C16-89F4-8572D04BF0E4}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,17 +1926,1298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="7" customWidth="1"/>
+    <col min="9" max="10" width="12" style="7" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="str">
+        <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C2,"slope",D2,"fuel",E2,"_rpb",F2*10,"_up",G2*10,"_acc",H2,"_ww",I2*10,"_ws",J2*10)</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelC_rpb2_up8_acc1_ww10_ws0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>+A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f t="shared" ref="B3:B34" si="0">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C3,"slope",D3,"fuel",E3,"_rpb",F3*10,"_up",G3*10,"_acc",H3,"_ww",I3*10,"_ws",J3*10)</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww9_ws1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <f>+I2-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="7">
+        <f>+J2+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>+A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelE_rpb2_up8_acc1_ww8_ws2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I11" si="1">+I3-0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J12" si="2">+J3+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f>+A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelF_rpb2_up8_acc1_ww7_ws3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f>+A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelG_rpb2_up8_acc1_ww6_ws4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f>+A6+1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelH_rpb2_up8_acc1_ww5_ws5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f t="shared" ref="A8:A34" si="3">+A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww4_ws6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww3_ws7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww2_ws8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww1_ws9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww0_ws10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww10_ws0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww9_ws1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="7">
+        <f>+H13</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <f>+I13-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="7">
+        <f>+J13+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww8_ws2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ref="H15:H34" si="4">+H14</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" ref="I15:I22" si="5">+I14-0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" ref="J15:J23" si="6">+J14+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww7_ws3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww6_ws4</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww5_ws5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="5"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww4_ws6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="5"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww3_ws7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww2_ws8</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww1_ws9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="5"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww0_ws10</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww10_ws0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww9_ws1</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <f>+I24-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="7">
+        <f>+J24+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww8_ws2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:I33" si="7">+I25-0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" ref="J26:J34" si="8">+J25+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww7_ws3</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="7"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="8"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww6_ws4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="7"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww5_ws5</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="7"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww4_ws6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="7"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww3_ws7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="7"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww2_ws8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="7"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="8"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww1_ws9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="8"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww0_ws10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K34" s="19"/>
+    </row>
+  </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C14708">
     <sortCondition descending="1" ref="C1:C14708"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDSPREAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5AAB24C4-4E7F-4960-B493-4FC408584C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6207CEA6-E52C-4CDF-AC52-A9C367838282}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{5AAB24C4-4E7F-4960-B493-4FC408584C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{825B5EC4-5849-4F5C-8F9E-357C3D79B5D5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1470" windowWidth="21600" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="-945" yWindow="1740" windowWidth="21600" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>wind</t>
+    <t>wwind</t>
   </si>
   <si>
-    <t>slope</t>
+    <t>wslope</t>
   </si>
 </sst>
 </file>
@@ -546,23 +546,23 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="7"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>+A2+1</f>
         <v>2</v>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>+A3+1</f>
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>+A4+1</f>
         <v>4</v>
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>5</v>
@@ -799,7 +799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>+A6+1</f>
         <v>6</v>
@@ -839,7 +839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" ref="A8:A34" si="2">+A7+1</f>
         <v>7</v>
@@ -879,7 +879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -959,7 +959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -999,7 +999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1039,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1119,7 +1119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1159,7 +1159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1199,7 +1199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1239,7 +1239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1319,7 +1319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1359,7 +1359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1399,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1439,7 +1439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1519,7 +1519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1559,7 +1559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1599,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1679,7 +1679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1719,7 +1719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1759,7 +1759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1799,7 +1799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -1839,7 +1839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -1879,7 +1879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -1929,25 +1929,25 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="7" customWidth="1"/>
     <col min="9" max="10" width="12" style="7" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="7"/>
+    <col min="11" max="11" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1982,13 +1982,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="str">
         <f>+_xlfn.CONCAT("Scn_pbEXPFI_wind",C2,"slope",D2,"fuel",E2,"_rpb",F2*10,"_up",G2*10,"_acc",H2,"_ww",I2*10,"_ws",J2*10)</f>
-        <v>Scn_pbEXPFI_windAslopeAfuelC_rpb2_up8_acc1_ww10_ws0</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww10_ws0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>12</v>
@@ -1997,7 +1997,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="18">
         <v>0.2</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>+A2+1</f>
         <v>2</v>
@@ -2053,14 +2053,14 @@
       </c>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelE_rpb2_up8_acc1_ww8_ws2</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww8_ws2</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -2069,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="18">
         <v>0.2</v>
@@ -2090,14 +2090,14 @@
       </c>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>+A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelF_rpb2_up8_acc1_ww7_ws3</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww7_ws3</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
@@ -2106,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="18">
         <v>0.2</v>
@@ -2127,14 +2127,14 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>+A5+1</f>
         <v>5</v>
       </c>
       <c r="B6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelG_rpb2_up8_acc1_ww6_ws4</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww6_ws4</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -2143,7 +2143,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="18">
         <v>0.2</v>
@@ -2164,14 +2164,14 @@
       </c>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>+A6+1</f>
         <v>6</v>
       </c>
       <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelH_rpb2_up8_acc1_ww5_ws5</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww5_ws5</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -2180,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="18">
         <v>0.2</v>
@@ -2201,14 +2201,14 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" ref="A8:A34" si="3">+A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww4_ws6</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww4_ws6</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -2217,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="18">
         <v>0.2</v>
@@ -2238,14 +2238,14 @@
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww3_ws7</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww3_ws7</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -2254,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="18">
         <v>0.2</v>
@@ -2275,14 +2275,14 @@
       </c>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww2_ws8</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww2_ws8</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -2291,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" s="18">
         <v>0.2</v>
@@ -2312,14 +2312,14 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww1_ws9</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww1_ws9</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -2328,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F11" s="18">
         <v>0.2</v>
@@ -2349,14 +2349,14 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc1_ww0_ws10</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc1_ww0_ws10</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F12" s="18">
         <v>0.2</v>
@@ -2385,14 +2385,14 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww10_ws0</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww10_ws0</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
@@ -2401,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F13" s="18">
         <v>0.2</v>
@@ -2420,14 +2420,14 @@
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww9_ws1</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww9_ws1</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
@@ -2436,7 +2436,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="18">
         <v>0.2</v>
@@ -2458,14 +2458,14 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww8_ws2</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww8_ws2</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
@@ -2474,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F15" s="18">
         <v>0.2</v>
@@ -2496,14 +2496,14 @@
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww7_ws3</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww7_ws3</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
@@ -2512,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F16" s="18">
         <v>0.2</v>
@@ -2534,14 +2534,14 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww6_ws4</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww6_ws4</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>12</v>
@@ -2550,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F17" s="18">
         <v>0.2</v>
@@ -2572,14 +2572,14 @@
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww5_ws5</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww5_ws5</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
@@ -2588,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F18" s="18">
         <v>0.2</v>
@@ -2610,14 +2610,14 @@
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww4_ws6</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww4_ws6</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>12</v>
@@ -2626,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
         <v>0.2</v>
@@ -2648,14 +2648,14 @@
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww3_ws7</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww3_ws7</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>12</v>
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
         <v>0.2</v>
@@ -2686,14 +2686,14 @@
       </c>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww2_ws8</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww2_ws8</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>12</v>
@@ -2702,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>0.2</v>
@@ -2724,14 +2724,14 @@
       </c>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww1_ws9</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww1_ws9</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>12</v>
@@ -2740,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>0.2</v>
@@ -2762,14 +2762,14 @@
       </c>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc2_ww0_ws10</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww0_ws10</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>12</v>
@@ -2778,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>0.2</v>
@@ -2799,14 +2799,14 @@
       </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww10_ws0</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww10_ws0</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>12</v>
@@ -2815,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>0.2</v>
@@ -2834,14 +2834,14 @@
       </c>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww9_ws1</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww9_ws1</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>12</v>
@@ -2850,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>0.2</v>
@@ -2872,14 +2872,14 @@
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww8_ws2</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww8_ws2</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>12</v>
@@ -2888,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>0.2</v>
@@ -2910,14 +2910,14 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww7_ws3</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww7_ws3</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>0.2</v>
@@ -2948,14 +2948,14 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww6_ws4</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww6_ws4</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>12</v>
@@ -2964,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>0.2</v>
@@ -2986,14 +2986,14 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww5_ws5</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww5_ws5</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -3002,7 +3002,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>0.2</v>
@@ -3024,14 +3024,14 @@
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww4_ws6</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww4_ws6</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>12</v>
@@ -3040,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>0.2</v>
@@ -3062,14 +3062,14 @@
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww3_ws7</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww3_ws7</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
@@ -3078,7 +3078,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>0.2</v>
@@ -3100,14 +3100,14 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww2_ws8</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww2_ws8</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>12</v>
@@ -3116,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
         <v>0.2</v>
@@ -3138,14 +3138,14 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww1_ws9</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww1_ws9</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>12</v>
@@ -3154,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
         <v>0.2</v>
@@ -3176,14 +3176,14 @@
       </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelB_rpb2_up8_acc3_ww0_ws10</v>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww0_ws10</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>12</v>
@@ -3192,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F34" s="18">
         <v>0.2</v>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDSPREAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDSPREAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{5AAB24C4-4E7F-4960-B493-4FC408584C80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{825B5EC4-5849-4F5C-8F9E-357C3D79B5D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438FB01-1E38-4920-B53F-DEBC0012A5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="1740" windowWidth="21600" windowHeight="11280" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="30240" yWindow="1440" windowWidth="16200" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,6 +232,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,23 +557,23 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -639,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>+A2+1</f>
         <v>2</v>
@@ -679,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>+A3+1</f>
         <v>3</v>
@@ -719,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f>+A4+1</f>
         <v>4</v>
@@ -759,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>5</v>
@@ -799,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f>+A6+1</f>
         <v>6</v>
@@ -839,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f t="shared" ref="A8:A34" si="2">+A7+1</f>
         <v>7</v>
@@ -879,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -919,7 +930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -959,7 +970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -999,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1039,7 +1050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1079,7 +1090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1119,7 +1130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1159,7 +1170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1199,7 +1210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1239,7 +1250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1279,7 +1290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1319,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1359,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1399,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1439,7 +1450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1479,7 +1490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1519,7 +1530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1559,7 +1570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1599,7 +1610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1639,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1679,7 +1690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1719,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1759,7 +1770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1799,7 +1810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -1839,7 +1850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -1879,7 +1890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -1929,25 +1940,25 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A13" sqref="A13:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="7" customWidth="1"/>
     <col min="9" max="10" width="12" style="7" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5703125" style="7"/>
+    <col min="11" max="11" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2016,7 +2027,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>+A2+1</f>
         <v>2</v>
@@ -2053,7 +2064,7 @@
       </c>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>+A3+1</f>
         <v>3</v>
@@ -2090,7 +2101,7 @@
       </c>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>+A4+1</f>
         <v>4</v>
@@ -2127,7 +2138,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>+A5+1</f>
         <v>5</v>
@@ -2164,7 +2175,7 @@
       </c>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>+A6+1</f>
         <v>6</v>
@@ -2201,7 +2212,7 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f t="shared" ref="A8:A34" si="3">+A7+1</f>
         <v>7</v>
@@ -2238,7 +2249,7 @@
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2275,7 +2286,7 @@
       </c>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2312,7 +2323,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2349,7 +2360,7 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2385,421 +2396,421 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww10_ws0</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="C13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="21">
         <v>2</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21">
         <v>0</v>
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww9_ws1</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="21">
         <f>+H13</f>
         <v>2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="21">
         <f>+I13-0.1</f>
         <v>0.9</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="21">
         <f>+J13+0.1</f>
         <v>0.1</v>
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww8_ws2</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="C15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="21">
         <f t="shared" ref="H15:H34" si="4">+H14</f>
         <v>2</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="21">
         <f t="shared" ref="I15:I22" si="5">+I14-0.1</f>
         <v>0.8</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="21">
         <f t="shared" ref="J15:J23" si="6">+J14+0.1</f>
         <v>0.2</v>
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww7_ws3</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="C16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="21">
         <f t="shared" si="5"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="21">
         <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww6_ws4</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="21">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="21">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww5_ws5</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="C18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="21">
         <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="21">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww4_ws6</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="C19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="21">
         <f t="shared" si="5"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="21">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww3_ws7</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="C20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="21">
         <f t="shared" si="5"/>
         <v>0.30000000000000016</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="21">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww2_ws8</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="C21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="21">
         <f t="shared" si="5"/>
         <v>0.20000000000000015</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="21">
         <f t="shared" si="6"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww1_ws9</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="C22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="21">
         <f t="shared" si="5"/>
         <v>0.10000000000000014</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="21">
         <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww0_ws10</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="C23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="21">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="21">
         <v>0</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="21">
         <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -2834,7 +2845,7 @@
       </c>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2872,7 +2883,7 @@
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2910,7 +2921,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -2948,7 +2959,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -2986,7 +2997,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -3024,7 +3035,7 @@
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3062,7 +3073,7 @@
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3100,7 +3111,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3138,7 +3149,7 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -3176,7 +3187,7 @@
       </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <f t="shared" si="3"/>
         <v>33</v>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDSPREAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDSPREAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438FB01-1E38-4920-B53F-DEBC0012A5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3438FB01-1E38-4920-B53F-DEBC0012A5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{32AC53CA-3F86-4A57-84AB-978F867BA7E7}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1440" windowWidth="16200" windowHeight="9300" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Obj4" sheetId="1" r:id="rId1"/>
-    <sheet name="Obj5" sheetId="3" r:id="rId2"/>
+    <sheet name="Incendis" sheetId="5" r:id="rId1"/>
+    <sheet name="Obj4" sheetId="1" r:id="rId2"/>
+    <sheet name="Obj5" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Incendis!$A$1:$H$164</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="35">
   <si>
     <t>scn.id</t>
   </si>
@@ -117,12 +121,36 @@
   <si>
     <t>wslope</t>
   </si>
+  <si>
+    <t>fire.id</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>sever</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>fsy</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>mdl.id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +167,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +217,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -231,10 +277,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -550,6 +607,4449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE34F8-51B4-438F-8F7D-0E0D65BEB574}">
+  <dimension ref="A1:H164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>212</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <f>+B2+1988</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>141</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>122</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f>+B3+1988</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>143</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>325</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <f>+B4+1988</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>672</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>305</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <f>+B5+1988</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>828</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>158</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>82</v>
+      </c>
+      <c r="H6">
+        <f>+B6+1988</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>148</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <f>+B7+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>149</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1525</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <f>+B8+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>151</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>258</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <f>+B9+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>154</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>644</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <f>+B10+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>155</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>549</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <f>+B11+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>157</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>273</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <f>+B12+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>159</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>183</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>135</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <f>+B13+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>162</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>210</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>135</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <f>+B14+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>384</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>88</v>
+      </c>
+      <c r="H15">
+        <f>+B15+1988</f>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>163</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>135</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <f>+B16+1988</f>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>165</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>834</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <f>+B17+1988</f>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>169</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>470</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <f>+B18+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>887</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <f>+B19+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>172</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1168</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <f>+B20+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>174</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>489</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>180</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f>+B21+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>175</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>732</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>135</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <f>+B22+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f>+B23+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1121</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1274</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>135</v>
+      </c>
+      <c r="G24">
+        <v>83</v>
+      </c>
+      <c r="H24">
+        <f>+B24+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>106</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>89</v>
+      </c>
+      <c r="H25">
+        <f>+B25+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>141</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>90</v>
+      </c>
+      <c r="H26">
+        <f>+B26+1988</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>135</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f>+B27+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4507</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <f>+B28+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>179</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>147</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <f>+B29+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>181</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2398</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>135</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <f>+B30+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>184</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>270</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <f>+B31+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>186</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>84</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>90</v>
+      </c>
+      <c r="G32">
+        <v>29</v>
+      </c>
+      <c r="H32">
+        <f>+B32+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>188</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <f>+B33+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>189</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>304</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>135</v>
+      </c>
+      <c r="G34">
+        <v>31</v>
+      </c>
+      <c r="H34">
+        <f>+B34+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>193</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <f>+B35+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>191</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>386</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="H36">
+        <f>+B36+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>194</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>160</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>360</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <f>+B37+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>195</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>416</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>35</v>
+      </c>
+      <c r="H38">
+        <f>+B38+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>198</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1191</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <f>+B39+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>199</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>345</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+      <c r="H40">
+        <f>+B40+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>201</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1447</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>38</v>
+      </c>
+      <c r="H41">
+        <f>+B41+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>202</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>187</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>39</v>
+      </c>
+      <c r="H42">
+        <f>+B42+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>203</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>153</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <f>+B43+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>205</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>81</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>180</v>
+      </c>
+      <c r="G44">
+        <v>41</v>
+      </c>
+      <c r="H44">
+        <f>+B44+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>206</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>232</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>45</v>
+      </c>
+      <c r="G45">
+        <v>42</v>
+      </c>
+      <c r="H45">
+        <f>+B45+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>208</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>111</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>43</v>
+      </c>
+      <c r="H46">
+        <f>+B46+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>209</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>465</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>44</v>
+      </c>
+      <c r="H47">
+        <f>+B47+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>210</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>393</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>45</v>
+      </c>
+      <c r="H48">
+        <f>+B48+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>211</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>358</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>46</v>
+      </c>
+      <c r="H49">
+        <f>+B49+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>213</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>471</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>47</v>
+      </c>
+      <c r="H50">
+        <f>+B50+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>214</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2741</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>48</v>
+      </c>
+      <c r="H51">
+        <f>+B51+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>215</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>16264</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>49</v>
+      </c>
+      <c r="H52">
+        <f>+B52+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>216</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>107</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>50</v>
+      </c>
+      <c r="H53">
+        <f>+B53+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>218</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>131</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>52</v>
+      </c>
+      <c r="H54">
+        <f>+B54+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>220</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>234</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <f>+B55+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>221</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>23510</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>54</v>
+      </c>
+      <c r="H56">
+        <f>+B56+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>226</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>116</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>135</v>
+      </c>
+      <c r="G57">
+        <v>55</v>
+      </c>
+      <c r="H57">
+        <f>+B57+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>227</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>178</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <f>+B58+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>229</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>135</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>135</v>
+      </c>
+      <c r="G59">
+        <v>57</v>
+      </c>
+      <c r="H59">
+        <f>+B59+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>475</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>541</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>73</v>
+      </c>
+      <c r="H60">
+        <f>+B60+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>476</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2592</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>74</v>
+      </c>
+      <c r="H61">
+        <f>+B61+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>634</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1816</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>76</v>
+      </c>
+      <c r="H62">
+        <f>+B62+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>637</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>3229</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>77</v>
+      </c>
+      <c r="H63">
+        <f>+B63+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1232</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>3311</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>84</v>
+      </c>
+      <c r="H64">
+        <f>+B64+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1248</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>145</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>85</v>
+      </c>
+      <c r="H65">
+        <f>+B65+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1253</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>90</v>
+      </c>
+      <c r="G66">
+        <v>86</v>
+      </c>
+      <c r="H66">
+        <f>+B66+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1503</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>6004</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>87</v>
+      </c>
+      <c r="H67">
+        <f>+B67+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2023</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>6527</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <v>91</v>
+      </c>
+      <c r="H68">
+        <f>+B68+1988</f>
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>230</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>4857</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>135</v>
+      </c>
+      <c r="G69">
+        <v>58</v>
+      </c>
+      <c r="H69">
+        <f>+B69+1988</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>234</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>157</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>270</v>
+      </c>
+      <c r="G70">
+        <v>59</v>
+      </c>
+      <c r="H70">
+        <f>+B70+1988</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>235</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>115</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>135</v>
+      </c>
+      <c r="G71">
+        <v>60</v>
+      </c>
+      <c r="H71">
+        <f>+B71+1988</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>236</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>251</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>61</v>
+      </c>
+      <c r="H72">
+        <f>+B72+1988</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>237</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>835</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>270</v>
+      </c>
+      <c r="G73">
+        <v>62</v>
+      </c>
+      <c r="H73">
+        <f>+B73+1988</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>243</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>60</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>135</v>
+      </c>
+      <c r="G74">
+        <v>63</v>
+      </c>
+      <c r="H74">
+        <f>+B74+1988</f>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>633</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>380</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>75</v>
+      </c>
+      <c r="H75">
+        <f>+B75+1988</f>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>247</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>135</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>64</v>
+      </c>
+      <c r="H76">
+        <f>+B76+1988</f>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>249</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>78</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>65</v>
+      </c>
+      <c r="H77">
+        <f>+B77+1988</f>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>256</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>177</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>66</v>
+      </c>
+      <c r="H78">
+        <f>+B78+1988</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>259</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>24176</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>67</v>
+      </c>
+      <c r="H79">
+        <f>+B79+1988</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>261</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>407</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>135</v>
+      </c>
+      <c r="G80">
+        <v>68</v>
+      </c>
+      <c r="H80">
+        <f>+B80+1988</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>263</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>514</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>135</v>
+      </c>
+      <c r="G81">
+        <v>69</v>
+      </c>
+      <c r="H81">
+        <f>+B81+1988</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>264</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>158</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>70</v>
+      </c>
+      <c r="H82">
+        <f>+B82+1988</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>266</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>591</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>71</v>
+      </c>
+      <c r="H83">
+        <f>+B83+1988</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>279</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>164</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>72</v>
+      </c>
+      <c r="H84">
+        <f>+B84+1988</f>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2038</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>70</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>135</v>
+      </c>
+      <c r="G85">
+        <v>92</v>
+      </c>
+      <c r="H85">
+        <f>+B85+1988</f>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2045</v>
+      </c>
+      <c r="B86">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>266</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>135</v>
+      </c>
+      <c r="G86">
+        <v>93</v>
+      </c>
+      <c r="H86">
+        <f>+B86+1988</f>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>104</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>276</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <f>+B87+1988</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2106</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>638</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>90</v>
+      </c>
+      <c r="G88">
+        <v>95</v>
+      </c>
+      <c r="H88">
+        <f>+B88+1988</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2109</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>183</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>225</v>
+      </c>
+      <c r="G89">
+        <v>96</v>
+      </c>
+      <c r="H89">
+        <f>+B89+1988</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2283</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>5836</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>135</v>
+      </c>
+      <c r="G90">
+        <v>149</v>
+      </c>
+      <c r="H90">
+        <f>+B90+1988</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2284</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>88</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>150</v>
+      </c>
+      <c r="H91">
+        <f>+B91+1988</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2285</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>288</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>151</v>
+      </c>
+      <c r="H92">
+        <f>+B92+1988</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>26</v>
+      </c>
+      <c r="B93">
+        <v>13</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>217</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <f>+B93+1988</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>52</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>115</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="H94">
+        <f>+B94+1988</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>689</v>
+      </c>
+      <c r="B95">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>341</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>79</v>
+      </c>
+      <c r="H95">
+        <f>+B95+1988</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2118</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1693</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>180</v>
+      </c>
+      <c r="G96">
+        <v>97</v>
+      </c>
+      <c r="H96">
+        <f>+B96+1988</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>132</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f>+B97+1988</f>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2128</v>
+      </c>
+      <c r="B98">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>297</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>98</v>
+      </c>
+      <c r="H98">
+        <f>+B98+1988</f>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2134</v>
+      </c>
+      <c r="B99">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>476</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>99</v>
+      </c>
+      <c r="H99">
+        <f>+B99+1988</f>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2135</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>59</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <f>+B100+1988</f>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2139</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>86</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>135</v>
+      </c>
+      <c r="G101">
+        <v>101</v>
+      </c>
+      <c r="H101">
+        <f>+B101+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2144</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>58</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>102</v>
+      </c>
+      <c r="H102">
+        <f>+B102+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2145</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>407</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>180</v>
+      </c>
+      <c r="G103">
+        <v>103</v>
+      </c>
+      <c r="H103">
+        <f>+B103+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2146</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>350</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>104</v>
+      </c>
+      <c r="H104">
+        <f>+B104+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2147</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>72</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>105</v>
+      </c>
+      <c r="H105">
+        <f>+B105+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2149</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>347</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>106</v>
+      </c>
+      <c r="H106">
+        <f>+B106+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2152</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1005</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>107</v>
+      </c>
+      <c r="H107">
+        <f>+B107+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2153</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>162</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>108</v>
+      </c>
+      <c r="H108">
+        <f>+B108+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2154</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>4289</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>109</v>
+      </c>
+      <c r="H109">
+        <f>+B109+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2155</v>
+      </c>
+      <c r="B110">
+        <v>15</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>378</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>110</v>
+      </c>
+      <c r="H110">
+        <f>+B110+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2162</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>127</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>111</v>
+      </c>
+      <c r="H111">
+        <f>+B111+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2163</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>237</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>112</v>
+      </c>
+      <c r="H112">
+        <f>+B112+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2168</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1777</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>113</v>
+      </c>
+      <c r="H113">
+        <f>+B113+1988</f>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2175</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>607</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>135</v>
+      </c>
+      <c r="G114">
+        <v>114</v>
+      </c>
+      <c r="H114">
+        <f>+B114+1988</f>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2178</v>
+      </c>
+      <c r="B115">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>73</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>360</v>
+      </c>
+      <c r="G115">
+        <v>115</v>
+      </c>
+      <c r="H115">
+        <f>+B115+1988</f>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>217</v>
+      </c>
+      <c r="B116">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>89</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>45</v>
+      </c>
+      <c r="G116">
+        <v>51</v>
+      </c>
+      <c r="H116">
+        <f>+B116+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2187</v>
+      </c>
+      <c r="B117">
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1135</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>116</v>
+      </c>
+      <c r="H117">
+        <f>+B117+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2188</v>
+      </c>
+      <c r="B118">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>826</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>117</v>
+      </c>
+      <c r="H118">
+        <f>+B118+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2189</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>69</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>118</v>
+      </c>
+      <c r="H119">
+        <f>+B119+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2191</v>
+      </c>
+      <c r="B120">
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>734</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>119</v>
+      </c>
+      <c r="H120">
+        <f>+B120+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2196</v>
+      </c>
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>206</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>120</v>
+      </c>
+      <c r="H121">
+        <f>+B121+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2201</v>
+      </c>
+      <c r="B122">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>434</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>121</v>
+      </c>
+      <c r="H122">
+        <f>+B122+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2202</v>
+      </c>
+      <c r="B123">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>153</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>122</v>
+      </c>
+      <c r="H123">
+        <f>+B123+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2205</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>584</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>90</v>
+      </c>
+      <c r="G124">
+        <v>123</v>
+      </c>
+      <c r="H124">
+        <f>+B124+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2208</v>
+      </c>
+      <c r="B125">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>118</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>360</v>
+      </c>
+      <c r="G125">
+        <v>124</v>
+      </c>
+      <c r="H125">
+        <f>+B125+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2212</v>
+      </c>
+      <c r="B126">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>104</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>135</v>
+      </c>
+      <c r="G126">
+        <v>125</v>
+      </c>
+      <c r="H126">
+        <f>+B126+1988</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2214</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>291</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>135</v>
+      </c>
+      <c r="G127">
+        <v>126</v>
+      </c>
+      <c r="H127">
+        <f>+B127+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2215</v>
+      </c>
+      <c r="B128">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>425</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>135</v>
+      </c>
+      <c r="G128">
+        <v>127</v>
+      </c>
+      <c r="H128">
+        <f>+B128+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2217</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>203</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>135</v>
+      </c>
+      <c r="G129">
+        <v>128</v>
+      </c>
+      <c r="H129">
+        <f>+B129+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2220</v>
+      </c>
+      <c r="B130">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>960</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>180</v>
+      </c>
+      <c r="G130">
+        <v>129</v>
+      </c>
+      <c r="H130">
+        <f>+B130+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2226</v>
+      </c>
+      <c r="B131">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>64</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="H131">
+        <f>+B131+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2229</v>
+      </c>
+      <c r="B132">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>121</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>131</v>
+      </c>
+      <c r="H132">
+        <f>+B132+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2232</v>
+      </c>
+      <c r="B133">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>53</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>90</v>
+      </c>
+      <c r="G133">
+        <v>132</v>
+      </c>
+      <c r="H133">
+        <f>+B133+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2235</v>
+      </c>
+      <c r="B134">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1175</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>135</v>
+      </c>
+      <c r="G134">
+        <v>133</v>
+      </c>
+      <c r="H134">
+        <f>+B134+1988</f>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2236</v>
+      </c>
+      <c r="B135">
+        <v>19</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>83</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>315</v>
+      </c>
+      <c r="G135">
+        <v>134</v>
+      </c>
+      <c r="H135">
+        <f>+B135+1988</f>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2240</v>
+      </c>
+      <c r="B136">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>228</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>135</v>
+      </c>
+      <c r="H136">
+        <f>+B136+1988</f>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2241</v>
+      </c>
+      <c r="B137">
+        <v>19</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>134</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>136</v>
+      </c>
+      <c r="H137">
+        <f>+B137+1988</f>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2246</v>
+      </c>
+      <c r="B138">
+        <v>19</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>105</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>90</v>
+      </c>
+      <c r="G138">
+        <v>137</v>
+      </c>
+      <c r="H138">
+        <f>+B138+1988</f>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2247</v>
+      </c>
+      <c r="B139">
+        <v>19</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>437</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>138</v>
+      </c>
+      <c r="H139">
+        <f>+B139+1988</f>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2248</v>
+      </c>
+      <c r="B140">
+        <v>19</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>377</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>135</v>
+      </c>
+      <c r="G140">
+        <v>139</v>
+      </c>
+      <c r="H140">
+        <f>+B140+1988</f>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>690</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>107</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>80</v>
+      </c>
+      <c r="H141">
+        <f>+B141+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>691</v>
+      </c>
+      <c r="B142">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>166</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>81</v>
+      </c>
+      <c r="H142">
+        <f>+B142+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2259</v>
+      </c>
+      <c r="B143">
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>82</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>360</v>
+      </c>
+      <c r="G143">
+        <v>140</v>
+      </c>
+      <c r="H143">
+        <f>+B143+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2263</v>
+      </c>
+      <c r="B144">
+        <v>21</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>5005</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>90</v>
+      </c>
+      <c r="G144">
+        <v>141</v>
+      </c>
+      <c r="H144">
+        <f>+B144+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2267</v>
+      </c>
+      <c r="B145">
+        <v>21</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>230</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>315</v>
+      </c>
+      <c r="G145">
+        <v>142</v>
+      </c>
+      <c r="H145">
+        <f>+B145+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2269</v>
+      </c>
+      <c r="B146">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>91</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>90</v>
+      </c>
+      <c r="G146">
+        <v>143</v>
+      </c>
+      <c r="H146">
+        <f>+B146+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2272</v>
+      </c>
+      <c r="B147">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>104</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>135</v>
+      </c>
+      <c r="G147">
+        <v>144</v>
+      </c>
+      <c r="H147">
+        <f>+B147+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2273</v>
+      </c>
+      <c r="B148">
+        <v>21</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>94</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>145</v>
+      </c>
+      <c r="H148">
+        <f>+B148+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2275</v>
+      </c>
+      <c r="B149">
+        <v>21</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>934</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>360</v>
+      </c>
+      <c r="G149">
+        <v>146</v>
+      </c>
+      <c r="H149">
+        <f>+B149+1988</f>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2277</v>
+      </c>
+      <c r="B150">
+        <v>22</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>126</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>147</v>
+      </c>
+      <c r="H150">
+        <f>+B150+1988</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2281</v>
+      </c>
+      <c r="B151">
+        <v>22</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>111</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>148</v>
+      </c>
+      <c r="H151">
+        <f>+B151+1988</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2286</v>
+      </c>
+      <c r="B152">
+        <v>22</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>66</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>152</v>
+      </c>
+      <c r="H152">
+        <f>+B152+1988</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2060</v>
+      </c>
+      <c r="B153">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>92</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>90</v>
+      </c>
+      <c r="G153">
+        <v>94</v>
+      </c>
+      <c r="H153">
+        <f>+B153+1988</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2287</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>90</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>153</v>
+      </c>
+      <c r="H154">
+        <f>+B154+1988</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2291</v>
+      </c>
+      <c r="B155">
+        <v>23</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>357</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>135</v>
+      </c>
+      <c r="G155">
+        <v>154</v>
+      </c>
+      <c r="H155">
+        <f>+B155+1988</f>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2296</v>
+      </c>
+      <c r="B156">
+        <v>24</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>99</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>225</v>
+      </c>
+      <c r="G156">
+        <v>155</v>
+      </c>
+      <c r="H156">
+        <f>+B156+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2300</v>
+      </c>
+      <c r="B157">
+        <v>24</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>191</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>135</v>
+      </c>
+      <c r="G157">
+        <v>156</v>
+      </c>
+      <c r="H157">
+        <f>+B157+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2301</v>
+      </c>
+      <c r="B158">
+        <v>24</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>179</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>180</v>
+      </c>
+      <c r="G158">
+        <v>157</v>
+      </c>
+      <c r="H158">
+        <f>+B158+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2302</v>
+      </c>
+      <c r="B159">
+        <v>24</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>10629</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>180</v>
+      </c>
+      <c r="G159">
+        <v>158</v>
+      </c>
+      <c r="H159">
+        <f>+B159+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2303</v>
+      </c>
+      <c r="B160">
+        <v>24</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>375</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>180</v>
+      </c>
+      <c r="G160">
+        <v>159</v>
+      </c>
+      <c r="H160">
+        <f>+B160+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2310</v>
+      </c>
+      <c r="B161">
+        <v>24</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>334</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>225</v>
+      </c>
+      <c r="G161">
+        <v>160</v>
+      </c>
+      <c r="H161">
+        <f>+B161+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2319</v>
+      </c>
+      <c r="B162">
+        <v>24</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>596</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>161</v>
+      </c>
+      <c r="H162">
+        <f>+B162+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2320</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>68</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>45</v>
+      </c>
+      <c r="G163">
+        <v>162</v>
+      </c>
+      <c r="H163">
+        <f>+B163+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2323</v>
+      </c>
+      <c r="B164">
+        <v>24</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>2803</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>180</v>
+      </c>
+      <c r="G164">
+        <v>163</v>
+      </c>
+      <c r="H164">
+        <f>+B164+1988</f>
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H164" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19859F-333D-4C16-89F4-8572D04BF0E4}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -557,23 +5057,23 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="7"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -650,7 +5150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>+A2+1</f>
         <v>2</v>
@@ -690,7 +5190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>+A3+1</f>
         <v>3</v>
@@ -730,7 +5230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>+A4+1</f>
         <v>4</v>
@@ -770,7 +5270,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>5</v>
@@ -810,7 +5310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>+A6+1</f>
         <v>6</v>
@@ -850,7 +5350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" ref="A8:A34" si="2">+A7+1</f>
         <v>7</v>
@@ -890,7 +5390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -930,7 +5430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -970,7 +5470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1010,7 +5510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1050,7 +5550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1090,7 +5590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1130,7 +5630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1170,7 +5670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1210,7 +5710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1250,7 +5750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1290,7 +5790,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1330,7 +5830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1370,7 +5870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1410,7 +5910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1450,7 +5950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1490,7 +5990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1530,7 +6030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1570,7 +6070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1610,7 +6110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1650,7 +6150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1690,7 +6190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1730,7 +6230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1770,7 +6270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1810,7 +6310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -1850,7 +6350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -1890,7 +6390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -1935,30 +6435,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="7" customWidth="1"/>
     <col min="9" max="10" width="12" style="7" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="7"/>
+    <col min="11" max="11" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +6471,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
@@ -1993,7 +6493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2007,7 +6507,7 @@
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="18">
@@ -2027,7 +6527,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>+A2+1</f>
         <v>2</v>
@@ -2042,7 +6542,7 @@
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="18">
@@ -2064,7 +6564,7 @@
       </c>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>+A3+1</f>
         <v>3</v>
@@ -2079,7 +6579,7 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="18">
@@ -2101,7 +6601,7 @@
       </c>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>+A4+1</f>
         <v>4</v>
@@ -2116,7 +6616,7 @@
       <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="18">
@@ -2138,7 +6638,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>+A5+1</f>
         <v>5</v>
@@ -2153,7 +6653,7 @@
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="18">
@@ -2175,7 +6675,7 @@
       </c>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>+A6+1</f>
         <v>6</v>
@@ -2190,7 +6690,7 @@
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="18">
@@ -2212,9 +6712,9 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <f t="shared" ref="A8:A34" si="3">+A7+1</f>
+        <f t="shared" ref="A8:A45" si="3">+A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" s="7" t="str">
@@ -2227,7 +6727,7 @@
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="18">
@@ -2249,7 +6749,7 @@
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2264,7 +6764,7 @@
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="18">
@@ -2286,7 +6786,7 @@
       </c>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2301,7 +6801,7 @@
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="18">
@@ -2323,7 +6823,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2338,7 +6838,7 @@
       <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="18">
@@ -2360,7 +6860,7 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2375,7 +6875,7 @@
       <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="18">
@@ -2396,833 +6896,1236 @@
       </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww10_ws0</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>0.2</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <v>0.8</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>2</v>
       </c>
-      <c r="I13" s="21">
-        <v>1</v>
-      </c>
-      <c r="J13" s="21">
+      <c r="I13" s="20">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
         <v>0</v>
       </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww9_ws1</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>0.2</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>0.8</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <f>+H13</f>
         <v>2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <f>+I13-0.1</f>
         <v>0.9</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <f>+J13+0.1</f>
         <v>0.1</v>
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww8_ws2</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>0.2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>0.8</v>
       </c>
-      <c r="H15" s="21">
-        <f t="shared" ref="H15:H34" si="4">+H14</f>
+      <c r="H15" s="20">
+        <f t="shared" ref="H15:H45" si="4">+H14</f>
         <v>2</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <f t="shared" ref="I15:I22" si="5">+I14-0.1</f>
         <v>0.8</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f t="shared" ref="J15:J23" si="6">+J14+0.1</f>
         <v>0.2</v>
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="B16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww7_ws3</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="C16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <v>0.2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <v>0.8</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="20">
         <f t="shared" si="5"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww6_ws4</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>0.2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>0.8</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="20">
         <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww5_ws5</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>0.2</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>0.8</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="B19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww4_ws6</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="C19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>0.2</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>0.8</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="20">
         <f t="shared" si="5"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="B20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww3_ws7</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="C20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <v>0.2</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>0.8</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="20">
         <f t="shared" si="5"/>
         <v>0.30000000000000016</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="20">
         <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww2_ws8</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>0.2</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>0.8</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <f t="shared" si="5"/>
         <v>0.20000000000000015</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="20">
         <f t="shared" si="6"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="str">
+      <c r="B22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww1_ws9</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>0.2</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="21">
         <v>0.8</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="20">
         <f t="shared" si="5"/>
         <v>0.10000000000000014</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="str">
+      <c r="B23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc2_ww0_ws10</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="C23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>0.2</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="21">
         <v>0.8</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="21">
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
         <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww10_ws0</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww10_ws0</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="23">
         <v>0.2</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="23">
         <v>0.8</v>
       </c>
-      <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="H24" s="22">
+        <v>5</v>
+      </c>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="22">
         <v>0</v>
       </c>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww9_ws1</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww9_ws1</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="23">
         <v>0.2</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="23">
         <v>0.8</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="22">
         <f>+I24-0.1</f>
         <v>0.9</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="22">
         <f>+J24+0.1</f>
         <v>0.1</v>
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww8_ws2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww8_ws2</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="23">
         <v>0.2</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="23">
         <v>0.8</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="22">
         <f t="shared" ref="I26:I33" si="7">+I25-0.1</f>
         <v>0.8</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="22">
         <f t="shared" ref="J26:J34" si="8">+J25+0.1</f>
         <v>0.2</v>
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww7_ws3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww7_ws3</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="23">
         <v>0.2</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="23">
         <v>0.8</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I27" s="7">
+        <v>5</v>
+      </c>
+      <c r="I27" s="22">
         <f t="shared" si="7"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="22">
         <f t="shared" si="8"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww6_ws4</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww6_ws4</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="23">
         <v>0.2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="23">
         <v>0.8</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="22">
         <f t="shared" si="7"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="22">
         <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww5_ws5</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww5_ws5</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="23">
         <v>0.2</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="23">
         <v>0.8</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="22">
         <f t="shared" si="7"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="22">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="str">
+      <c r="B30" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww4_ws6</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww4_ws6</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="23">
         <v>0.2</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="23">
         <v>0.8</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="22">
         <f t="shared" si="7"/>
         <v>0.40000000000000013</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="22">
         <f t="shared" si="8"/>
         <v>0.6</v>
       </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww3_ws7</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww3_ws7</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="23">
         <v>0.2</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="23">
         <v>0.8</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="22">
         <f t="shared" si="7"/>
         <v>0.30000000000000016</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="22">
         <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="B32" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww2_ws8</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww2_ws8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="23">
         <v>0.2</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="23">
         <v>0.8</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="22">
         <f t="shared" si="7"/>
         <v>0.20000000000000015</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="22">
         <f t="shared" si="8"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="B33" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww1_ws9</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww1_ws9</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="23">
         <v>0.2</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="23">
         <v>0.8</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I33" s="7">
+        <v>5</v>
+      </c>
+      <c r="I33" s="22">
         <f t="shared" si="7"/>
         <v>0.10000000000000014</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="22">
         <f t="shared" si="8"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="B34" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc3_ww0_ws10</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="20" t="s">
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc5_ww0_ws10</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="23">
         <v>0.2</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="23">
         <v>0.8</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
         <f t="shared" si="8"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="28" t="str">
+        <f t="shared" ref="B35:B45" si="9">+_xlfn.CONCAT("Scn_pbEXPFI_wind",C35,"slope",D35,"fuel",E35,"_rpb",F35*10,"_up",G35*10,"_acc",H35,"_ww",I35*10,"_ws",J35*10)</f>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww10_ws0</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="28">
+        <v>10</v>
+      </c>
+      <c r="I35" s="28">
+        <v>1</v>
+      </c>
+      <c r="J35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww9_ws1</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H36" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="28">
+        <f>+I35-0.1</f>
+        <v>0.9</v>
+      </c>
+      <c r="J36" s="28">
+        <f>+J35+0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww8_ws2</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G37" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H37" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I37" s="28">
+        <f t="shared" ref="I37:I44" si="10">+I36-0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="J37" s="28">
+        <f t="shared" ref="J37:J45" si="11">+J36+0.1</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww7_ws3</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H38" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I38" s="28">
+        <f t="shared" si="10"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J38" s="28">
+        <f t="shared" si="11"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww6_ws4</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G39" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H39" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I39" s="28">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J39" s="28">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww5_ws5</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H40" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="28">
+        <f t="shared" si="10"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J40" s="28">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww4_ws6</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G41" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H41" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I41" s="28">
+        <f t="shared" si="10"/>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="J41" s="28">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww3_ws7</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H42" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I42" s="28">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="J42" s="28">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww2_ws8</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G43" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H43" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I43" s="28">
+        <f t="shared" si="10"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="J43" s="28">
+        <f t="shared" si="11"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww1_ws9</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H44" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I44" s="28">
+        <f t="shared" si="10"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="J44" s="28">
+        <f t="shared" si="11"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>Scn_pbEXPFI_windAslopeAfuelD_rpb2_up8_acc10_ww0_ws10</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="H45" s="28">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I45" s="28">
+        <v>0</v>
+      </c>
+      <c r="J45" s="28">
+        <f t="shared" si="11"/>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C14708">
